--- a/New_Tasks.xlsx
+++ b/New_Tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="500">
   <si>
     <t>H</t>
   </si>
@@ -1894,7 +1894,7 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4640,7 +4640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
